--- a/data/houses.xlsx
+++ b/data/houses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban08/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F1DDA-E627-C940-BD62-DA58AC9FDF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E597C6-079E-E140-9E75-ACEA03B84625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="-24520" windowWidth="33960" windowHeight="14960" xr2:uid="{33D194D6-A429-7949-A97B-0894189945E2}"/>
+    <workbookView xWindow="11400" yWindow="-24680" windowWidth="33960" windowHeight="14960" xr2:uid="{33D194D6-A429-7949-A97B-0894189945E2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1539">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6416,10 +6416,10 @@
   <dimension ref="A1:CN72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BN59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="BY72" sqref="BY72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11809,6 +11809,9 @@
       <c r="BX24" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="BY24" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="BZ24" s="9" t="s">
         <v>124</v>
       </c>
@@ -20237,7 +20240,7 @@
         <v>123</v>
       </c>
       <c r="BY67" s="9" t="s">
-        <v>124</v>
+        <v>1079</v>
       </c>
       <c r="CA67" s="35">
         <v>28</v>
